--- a/data/pca/factorExposure/factorExposure_2012-08-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002973881279433727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001836082512425907</v>
+      </c>
+      <c r="C2">
+        <v>0.02885260539033706</v>
+      </c>
+      <c r="D2">
+        <v>-0.004509847354256842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0004894366534493315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006649170101053758</v>
+      </c>
+      <c r="C4">
+        <v>0.08385848116773548</v>
+      </c>
+      <c r="D4">
+        <v>-0.06431492017423115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.00547816779911869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01490897992530995</v>
+      </c>
+      <c r="C6">
+        <v>0.118835218052016</v>
+      </c>
+      <c r="D6">
+        <v>-0.01918045360336878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0001053143319879773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004139585867347264</v>
+      </c>
+      <c r="C7">
+        <v>0.05865011103701267</v>
+      </c>
+      <c r="D7">
+        <v>-0.03218852673055445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001411336229122919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005162268353697573</v>
+      </c>
+      <c r="C8">
+        <v>0.03645564996317338</v>
+      </c>
+      <c r="D8">
+        <v>-0.03696923642058631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0002915499938008735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005972825723112002</v>
+      </c>
+      <c r="C9">
+        <v>0.07358876861798924</v>
+      </c>
+      <c r="D9">
+        <v>-0.07017802198937072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0002275665731716719</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.001814449294585738</v>
+      </c>
+      <c r="C10">
+        <v>0.05039071019027149</v>
+      </c>
+      <c r="D10">
+        <v>0.1852532672734873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-9.453851511508262e-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006638949672898141</v>
+      </c>
+      <c r="C11">
+        <v>0.08214762599609841</v>
+      </c>
+      <c r="D11">
+        <v>-0.06743437671925617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0004649376942214127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004830011202721305</v>
+      </c>
+      <c r="C12">
+        <v>0.06728114110666433</v>
+      </c>
+      <c r="D12">
+        <v>-0.04856502893523762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002664526939737602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009679294430863558</v>
+      </c>
+      <c r="C13">
+        <v>0.07124821014976611</v>
+      </c>
+      <c r="D13">
+        <v>-0.05703551769116295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001982886510212435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0005514048330855538</v>
+      </c>
+      <c r="C14">
+        <v>0.04320721611518413</v>
+      </c>
+      <c r="D14">
+        <v>-0.01252365458573074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002348934079637601</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006839399818989474</v>
+      </c>
+      <c r="C15">
+        <v>0.04092412394624623</v>
+      </c>
+      <c r="D15">
+        <v>-0.02507326182277668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.000153329172623056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005648331564283214</v>
+      </c>
+      <c r="C16">
+        <v>0.06685332118811618</v>
+      </c>
+      <c r="D16">
+        <v>-0.05741490868766424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.003021337615957568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00918185160075803</v>
+      </c>
+      <c r="C20">
+        <v>0.06551229333678985</v>
+      </c>
+      <c r="D20">
+        <v>-0.04923377095265835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005621514514443415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.008972893349814121</v>
+      </c>
+      <c r="C21">
+        <v>0.01987202705415691</v>
+      </c>
+      <c r="D21">
+        <v>-0.03904968807859965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02033922438282003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007466979867138863</v>
+      </c>
+      <c r="C22">
+        <v>0.08564090718210812</v>
+      </c>
+      <c r="D22">
+        <v>-0.1164372655851192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02002433818493626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007194431538415901</v>
+      </c>
+      <c r="C23">
+        <v>0.08605617818192525</v>
+      </c>
+      <c r="D23">
+        <v>-0.1175381385764879</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.00071790929763062</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.006374501912400798</v>
+      </c>
+      <c r="C24">
+        <v>0.07836851821729802</v>
+      </c>
+      <c r="D24">
+        <v>-0.06615696412821905</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002356037905313467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003941156825398412</v>
+      </c>
+      <c r="C25">
+        <v>0.07979283901525019</v>
+      </c>
+      <c r="D25">
+        <v>-0.06329121106223712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00129834508596716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003797701595991693</v>
+      </c>
+      <c r="C26">
+        <v>0.04001290837508098</v>
+      </c>
+      <c r="D26">
+        <v>-0.02086074312144673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00742353056157213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.00269817354252491</v>
+      </c>
+      <c r="C28">
+        <v>0.1001038270901649</v>
+      </c>
+      <c r="D28">
+        <v>0.3262852520819687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0005916164436682096</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003340925668509691</v>
+      </c>
+      <c r="C29">
+        <v>0.04725907715344239</v>
+      </c>
+      <c r="D29">
+        <v>-0.009829049610670243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002462825257030894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009657690608223177</v>
+      </c>
+      <c r="C30">
+        <v>0.1423559100760773</v>
+      </c>
+      <c r="D30">
+        <v>-0.1073239613745907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002089171756161978</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006491727145850538</v>
+      </c>
+      <c r="C31">
+        <v>0.04448256672935156</v>
+      </c>
+      <c r="D31">
+        <v>-0.02810775376741255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002382064044038127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004389656495436863</v>
+      </c>
+      <c r="C32">
+        <v>0.03776625340855202</v>
+      </c>
+      <c r="D32">
+        <v>-0.01690679773733255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0007872159660990901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009409770466866982</v>
+      </c>
+      <c r="C33">
+        <v>0.09193432786351026</v>
+      </c>
+      <c r="D33">
+        <v>-0.06126098759833969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.0004974267157431688</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.005140808885630719</v>
+      </c>
+      <c r="C34">
+        <v>0.06001942739081089</v>
+      </c>
+      <c r="D34">
+        <v>-0.05712863628968167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001737100139251683</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004999692193434865</v>
+      </c>
+      <c r="C35">
+        <v>0.04091957920881226</v>
+      </c>
+      <c r="D35">
+        <v>-0.01401791675210895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004932802590306301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001640733073944859</v>
+      </c>
+      <c r="C36">
+        <v>0.02542414231784908</v>
+      </c>
+      <c r="D36">
+        <v>-0.02012521099883537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002789643638011047</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008677761270132294</v>
+      </c>
+      <c r="C38">
+        <v>0.03974388666498027</v>
+      </c>
+      <c r="D38">
+        <v>-0.01209817225351155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01033294638240511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009411211230421242</v>
+      </c>
+      <c r="C39">
+        <v>0.1150508614897898</v>
+      </c>
+      <c r="D39">
+        <v>-0.08341440508457551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004399616254347936</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002733117814829177</v>
+      </c>
+      <c r="C40">
+        <v>0.09041209897692903</v>
+      </c>
+      <c r="D40">
+        <v>-0.01564410681435567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002698370882620257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007762098459406612</v>
+      </c>
+      <c r="C41">
+        <v>0.04188745916879719</v>
+      </c>
+      <c r="D41">
+        <v>-0.04429373830331001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001717371453965054</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004060722432507313</v>
+      </c>
+      <c r="C43">
+        <v>0.05407728822661417</v>
+      </c>
+      <c r="D43">
+        <v>-0.02682508986088574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007465695437515445</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002182948782638389</v>
+      </c>
+      <c r="C44">
+        <v>0.1048045861067691</v>
+      </c>
+      <c r="D44">
+        <v>-0.06283702003215062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002130334755985269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.000565435509856985</v>
+      </c>
+      <c r="C46">
+        <v>0.03263254474270115</v>
+      </c>
+      <c r="D46">
+        <v>-0.03391188243524358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>2.998516795413917e-06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.003254087095927733</v>
+      </c>
+      <c r="C47">
+        <v>0.03512403461486114</v>
+      </c>
+      <c r="D47">
+        <v>-0.01972884984044318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004523448917512305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007507821734509886</v>
+      </c>
+      <c r="C48">
+        <v>0.03300352894476252</v>
+      </c>
+      <c r="D48">
+        <v>-0.02674342628312169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005712154171864983</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01879855720294041</v>
+      </c>
+      <c r="C49">
+        <v>0.1875455542139498</v>
+      </c>
+      <c r="D49">
+        <v>-0.01147830196818439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>3.748632222857759e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004272114964835093</v>
+      </c>
+      <c r="C50">
+        <v>0.04287086106515339</v>
+      </c>
+      <c r="D50">
+        <v>-0.03722885255660176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001636134256263713</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003895818021351474</v>
+      </c>
+      <c r="C51">
+        <v>0.02772676753145586</v>
+      </c>
+      <c r="D51">
+        <v>-0.02382384303832859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008987435033948468</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02210835566525778</v>
+      </c>
+      <c r="C53">
+        <v>0.1720172649405959</v>
+      </c>
+      <c r="D53">
+        <v>-0.02017063801166514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00349313294196143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009534851094481168</v>
+      </c>
+      <c r="C54">
+        <v>0.05713014889351337</v>
+      </c>
+      <c r="D54">
+        <v>-0.03911364169242475</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002392456765797714</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01034707020508623</v>
+      </c>
+      <c r="C55">
+        <v>0.1088770783426873</v>
+      </c>
+      <c r="D55">
+        <v>-0.03285691735982307</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.008296374292314208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02075167900619665</v>
+      </c>
+      <c r="C56">
+        <v>0.1750927807753674</v>
+      </c>
+      <c r="D56">
+        <v>-0.01472166424112631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.001882187431212549</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01725075769223526</v>
+      </c>
+      <c r="C58">
+        <v>0.1066970945958728</v>
+      </c>
+      <c r="D58">
+        <v>-0.05722403538945105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.003307706141493588</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009228369186053586</v>
+      </c>
+      <c r="C59">
+        <v>0.1662493524990082</v>
+      </c>
+      <c r="D59">
+        <v>0.3494593037964568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008309393248167462</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02614173527587706</v>
+      </c>
+      <c r="C60">
+        <v>0.2248875872711583</v>
+      </c>
+      <c r="D60">
+        <v>-0.01887927979099578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.009965952677642775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001867044702558546</v>
+      </c>
+      <c r="C61">
+        <v>0.09567795260357752</v>
+      </c>
+      <c r="D61">
+        <v>-0.0605956992380741</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1508417681581934</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1546459595929962</v>
+      </c>
+      <c r="C62">
+        <v>0.103880721460789</v>
+      </c>
+      <c r="D62">
+        <v>-0.01689383641483924</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0007785080565836489</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006515970010445805</v>
+      </c>
+      <c r="C63">
+        <v>0.05374537012904438</v>
+      </c>
+      <c r="D63">
+        <v>-0.03246246039261019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01052333501467818</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01746308949218712</v>
+      </c>
+      <c r="C64">
+        <v>0.107989514254249</v>
+      </c>
+      <c r="D64">
+        <v>-0.05171440972059217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008140465082071207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0175391875704836</v>
+      </c>
+      <c r="C65">
+        <v>0.1184845393424614</v>
+      </c>
+      <c r="D65">
+        <v>-0.02094374769022358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001406525900475692</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01328636628622817</v>
+      </c>
+      <c r="C66">
+        <v>0.1635642602516375</v>
+      </c>
+      <c r="D66">
+        <v>-0.1158234286427062</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006159085985462603</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01527245907344026</v>
+      </c>
+      <c r="C67">
+        <v>0.07254684198993011</v>
+      </c>
+      <c r="D67">
+        <v>-0.02508756168657521</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.005199243195688826</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.000528369614244575</v>
+      </c>
+      <c r="C68">
+        <v>0.08148142457677157</v>
+      </c>
+      <c r="D68">
+        <v>0.2618886680020481</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-1.647462677902331e-05</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006464479053503535</v>
+      </c>
+      <c r="C69">
+        <v>0.05191472460078093</v>
+      </c>
+      <c r="D69">
+        <v>-0.03635274097507275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001646914060335674</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002694334573649024</v>
+      </c>
+      <c r="C70">
+        <v>0.008926367343594281</v>
+      </c>
+      <c r="D70">
+        <v>0.001730018098237712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001388222847663664</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004266073081150391</v>
+      </c>
+      <c r="C71">
+        <v>0.08654856971435779</v>
+      </c>
+      <c r="D71">
+        <v>0.3033364741371472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005428934445288841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01839228466015207</v>
+      </c>
+      <c r="C72">
+        <v>0.1572508269739826</v>
+      </c>
+      <c r="D72">
+        <v>-0.01001559350845431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.0103615600220623</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03150055240608571</v>
+      </c>
+      <c r="C73">
+        <v>0.281264711126289</v>
+      </c>
+      <c r="D73">
+        <v>-0.05511147519388656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005700383371190876</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001856506482495647</v>
+      </c>
+      <c r="C74">
+        <v>0.1034905845915211</v>
+      </c>
+      <c r="D74">
+        <v>-0.03134374264989441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0002446407628221935</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01206238890933529</v>
+      </c>
+      <c r="C75">
+        <v>0.1202828510428414</v>
+      </c>
+      <c r="D75">
+        <v>-0.02575835892721324</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01100189249684478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02233202527301212</v>
+      </c>
+      <c r="C76">
+        <v>0.1468620528023554</v>
+      </c>
+      <c r="D76">
+        <v>-0.05473122578607727</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.005415963669535758</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02064683494139605</v>
+      </c>
+      <c r="C77">
+        <v>0.108779412283202</v>
+      </c>
+      <c r="D77">
+        <v>-0.04748108442716722</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003895864055809634</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01447530962452732</v>
+      </c>
+      <c r="C78">
+        <v>0.101584412079347</v>
+      </c>
+      <c r="D78">
+        <v>-0.07910645989937815</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02797049931845846</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03953034261817741</v>
+      </c>
+      <c r="C79">
+        <v>0.1565309219975381</v>
+      </c>
+      <c r="D79">
+        <v>-0.02933638595453405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006501203853989465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009747617992721455</v>
+      </c>
+      <c r="C80">
+        <v>0.03919401839126958</v>
+      </c>
+      <c r="D80">
+        <v>-0.03073154038601187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.005666511204707649</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01670385363973472</v>
+      </c>
+      <c r="C81">
+        <v>0.1311679166515796</v>
+      </c>
+      <c r="D81">
+        <v>-0.03463489717376792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.008175529192617846</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02010622077939556</v>
+      </c>
+      <c r="C82">
+        <v>0.1370120319331211</v>
+      </c>
+      <c r="D82">
+        <v>-0.03550100412245077</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003951423257398411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01232360416591262</v>
+      </c>
+      <c r="C83">
+        <v>0.06388878502514532</v>
+      </c>
+      <c r="D83">
+        <v>-0.04570772253579429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004752998524430947</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.007130372327456486</v>
+      </c>
+      <c r="C84">
+        <v>0.03514311067355844</v>
+      </c>
+      <c r="D84">
+        <v>-0.01327998450456205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01929622660435328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02923219198172243</v>
+      </c>
+      <c r="C85">
+        <v>0.1243743645543307</v>
+      </c>
+      <c r="D85">
+        <v>-0.03921561585042058</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002736355611895275</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003876820767509623</v>
+      </c>
+      <c r="C86">
+        <v>0.05011112798722903</v>
+      </c>
+      <c r="D86">
+        <v>-0.02216653732671366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001622704880456891</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01221370875254453</v>
+      </c>
+      <c r="C87">
+        <v>0.129461745496837</v>
+      </c>
+      <c r="D87">
+        <v>-0.0713403838241512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.008961839384460874</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003045492545547533</v>
+      </c>
+      <c r="C88">
+        <v>0.06367495778348559</v>
+      </c>
+      <c r="D88">
+        <v>-0.02715724950464158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01179202416865507</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003108360435097989</v>
+      </c>
+      <c r="C89">
+        <v>0.1311103441659457</v>
+      </c>
+      <c r="D89">
+        <v>0.3224609507308616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003034284151961482</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.004748618981806316</v>
+      </c>
+      <c r="C90">
+        <v>0.113138437222115</v>
+      </c>
+      <c r="D90">
+        <v>0.3151876498482992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001766787951109487</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01078969208092604</v>
+      </c>
+      <c r="C91">
+        <v>0.09845452965812834</v>
+      </c>
+      <c r="D91">
+        <v>-0.02659733511881506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.006597816602913681</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009775862423325031</v>
+      </c>
+      <c r="C92">
+        <v>0.1260065326745813</v>
+      </c>
+      <c r="D92">
+        <v>0.3270848635009321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.00221764256205009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.002907917180707619</v>
+      </c>
+      <c r="C93">
+        <v>0.1022718204206831</v>
+      </c>
+      <c r="D93">
+        <v>0.3007024459234921</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01045229336044273</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02195772404677439</v>
+      </c>
+      <c r="C94">
+        <v>0.1372956842591706</v>
+      </c>
+      <c r="D94">
+        <v>-0.05310280038238674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.007916352662462893</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01719382413953267</v>
+      </c>
+      <c r="C95">
+        <v>0.1227164084834801</v>
+      </c>
+      <c r="D95">
+        <v>-0.06673690157405412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01798151799050963</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03802769823953148</v>
+      </c>
+      <c r="C97">
+        <v>0.2231806391009986</v>
+      </c>
+      <c r="D97">
+        <v>0.004983570472700198</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01211450137485136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.04005564865174943</v>
+      </c>
+      <c r="C98">
+        <v>0.2623096484500737</v>
+      </c>
+      <c r="D98">
+        <v>-0.03270397432621244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9862933216670549</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9801588770987616</v>
+      </c>
+      <c r="C99">
+        <v>-0.1232544455122289</v>
+      </c>
+      <c r="D99">
+        <v>0.02620397713962911</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006117828672060313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003332916579185934</v>
+      </c>
+      <c r="C101">
+        <v>0.04744019860230295</v>
+      </c>
+      <c r="D101">
+        <v>-0.01048496037885361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
